--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24360" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+  <si>
+    <t>应急预案启动记录导出</t>
+  </si>
+  <si>
+    <t>事件类型</t>
+  </si>
+  <si>
+    <t>{{eventClass}}</t>
+  </si>
+  <si>
+    <t>事件性质</t>
+  </si>
+  <si>
+    <t>{{eventProperty}}</t>
+  </si>
   <si>
     <t>应急预案名称</t>
-  </si>
-  <si>
-    <t>事件类型</t>
-  </si>
-  <si>
-    <t>{{eventClass}}</t>
-  </si>
-  <si>
-    <t>事件性质</t>
-  </si>
-  <si>
-    <t>{{eventProperty}}</t>
   </si>
   <si>
     <t>{{emergencyPlanId}}</t>
@@ -1492,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,17 +1561,17 @@
     <row r="4" ht="37" customHeight="1" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="12"/>
@@ -1578,17 +1581,17 @@
     <row r="5" ht="24" customHeight="1" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="12"/>
@@ -1598,17 +1601,17 @@
     <row r="6" ht="33" customHeight="1" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="12"/>
@@ -1618,10 +1621,10 @@
     <row r="7" ht="28" customHeight="1" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1634,10 +1637,10 @@
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1674,7 +1677,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -1688,19 +1691,19 @@
     <row r="12" ht="26" customHeight="1" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="12"/>
@@ -1710,19 +1713,19 @@
     <row r="13" ht="23" customHeight="1" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
@@ -1756,7 +1759,7 @@
     <row r="16" ht="21" customHeight="1" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1770,22 +1773,22 @@
     <row r="17" ht="21" customHeight="1" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="16"/>
@@ -1794,22 +1797,22 @@
     <row r="18" ht="30" customHeight="1" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="16"/>
@@ -1842,7 +1845,7 @@
     <row r="21" ht="24" customHeight="1" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -1856,56 +1859,56 @@
     <row r="22" ht="27" customHeight="1" spans="1:10">
       <c r="A22" s="4"/>
       <c r="B22" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" ht="31" customHeight="1" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23" s="2"/>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
@@ -595,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -663,75 +663,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -756,10 +687,57 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -767,17 +745,30 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -896,7 +887,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,7 +917,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,28 +935,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,10 +965,10 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,12 +1063,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1088,21 +1079,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1114,25 +1108,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1141,16 +1132,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1167,12 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1495,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1555,7 +1540,7 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="44"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" ht="37" customHeight="1" spans="1:10">
@@ -1575,7 +1560,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="16"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:10">
@@ -1595,7 +1580,7 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:10">
@@ -1615,7 +1600,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:10">
@@ -1629,14 +1614,14 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1647,72 +1632,72 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="16"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:10">
       <c r="A11" s="2"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:10">
       <c r="A12" s="2"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:10">
       <c r="A13" s="2"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1721,82 +1706,82 @@
       <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="16"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:10">
       <c r="A14" s="2"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="16"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" ht="29" customHeight="1" spans="1:10">
       <c r="A15" s="2"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="6"/>
       <c r="D15" s="11"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:10">
       <c r="A16" s="2"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:10">
       <c r="A17" s="2"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:10">
       <c r="A18" s="2"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1811,35 +1796,35 @@
       <c r="F18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:10">
       <c r="A19" s="2"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:10">
       <c r="A20" s="2"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="45"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:10">
@@ -1886,7 +1871,7 @@
     </row>
     <row r="23" ht="31" customHeight="1" spans="1:10">
       <c r="A23" s="4"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -1926,7 +1911,7 @@
     </row>
     <row r="25" ht="28" customHeight="1" spans="1:10">
       <c r="A25" s="4"/>
-      <c r="B25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24360" windowHeight="11160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="应急预案启动记录导出模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1480,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
@@ -1480,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1491,7 +1491,7 @@
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
@@ -1712,7 +1712,7 @@
       <c r="F13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="2"/>
@@ -1946,7 +1946,7 @@
       <c r="J27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="20">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
@@ -1958,9 +1958,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="A4:A20"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordExport.xlsx
@@ -595,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -663,6 +663,95 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -685,67 +774,22 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -753,28 +797,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,7 +936,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,7 +966,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,28 +984,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,10 +1014,10 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,40 +1112,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1105,49 +1154,55 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1158,6 +1213,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1478,10 +1542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1540,7 +1604,7 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" ht="37" customHeight="1" spans="1:10">
@@ -1560,7 +1624,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:10">
@@ -1580,7 +1644,7 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:10">
@@ -1600,7 +1664,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:10">
@@ -1616,7 +1680,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -1632,7 +1696,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -1644,7 +1708,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" ht="36" customHeight="1" spans="1:10">
@@ -1656,7 +1720,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:10">
@@ -1670,7 +1734,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:10">
@@ -1692,7 +1756,7 @@
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:10">
@@ -1700,250 +1764,202 @@
       <c r="B13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:10">
+    <row r="14" ht="21" customHeight="1" spans="1:10">
       <c r="A14" s="2"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="B14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" ht="29" customHeight="1" spans="1:10">
+    <row r="15" ht="21" customHeight="1" spans="1:10">
       <c r="A15" s="2"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:10">
+    <row r="16" ht="30" customHeight="1" spans="1:10">
       <c r="A16" s="2"/>
-      <c r="B16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" ht="21" customHeight="1" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="25" t="s">
+    <row r="17" ht="24" customHeight="1" spans="1:10">
+      <c r="A17" s="4"/>
+      <c r="B17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="C18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>51</v>
+      </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:10">
-      <c r="A20" s="2"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+    <row r="20" ht="25" customHeight="1" spans="1:10">
+      <c r="A20" s="4"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="1:10">
+    <row r="21" ht="28" customHeight="1" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" ht="27" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22" s="4"/>
-      <c r="B22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>51</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" ht="31" customHeight="1" spans="1:10">
-      <c r="A23" s="4"/>
-      <c r="B23" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>59</v>
-      </c>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" ht="25" customHeight="1" spans="1:10">
-      <c r="A24" s="4"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" ht="28" customHeight="1" spans="1:10">
-      <c r="A25" s="4"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1958,15 +1974,15 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:A16"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="J4:J20"/>
+    <mergeCell ref="J4:J16"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="H3:I20"/>
     <mergeCell ref="C8:G10"/>
-    <mergeCell ref="A26:J27"/>
+    <mergeCell ref="A22:J23"/>
+    <mergeCell ref="H3:I12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
